--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Agtr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Agtr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,40 +540,40 @@
         <v>10.842088</v>
       </c>
       <c r="I2">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.743532666666667</v>
+        <v>0.01476566666666667</v>
       </c>
       <c r="N2">
-        <v>11.230598</v>
+        <v>0.044297</v>
       </c>
       <c r="O2">
-        <v>0.9802973346235675</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="P2">
-        <v>0.9802973346235675</v>
+        <v>0.003537680284170835</v>
       </c>
       <c r="Q2">
-        <v>13.52923686762489</v>
+        <v>0.05336355245955556</v>
       </c>
       <c r="R2">
-        <v>121.763131808624</v>
+        <v>0.480271972136</v>
       </c>
       <c r="S2">
-        <v>0.905911623241143</v>
+        <v>0.003369932031170864</v>
       </c>
       <c r="T2">
-        <v>0.9253367707900925</v>
+        <v>0.003537680284170835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,288 +602,102 @@
         <v>10.842088</v>
       </c>
       <c r="I3">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07523999999999999</v>
+        <v>3.743532666666667</v>
       </c>
       <c r="N3">
-        <v>0.22572</v>
+        <v>11.230598</v>
       </c>
       <c r="O3">
-        <v>0.01970266537643246</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="P3">
-        <v>0.01970266537643246</v>
+        <v>0.8969064524470826</v>
       </c>
       <c r="Q3">
-        <v>0.27191956704</v>
+        <v>13.52923686762489</v>
       </c>
       <c r="R3">
-        <v>2.44727610336</v>
+        <v>121.763131808624</v>
       </c>
       <c r="S3">
-        <v>0.01820761206108444</v>
+        <v>0.8543773151546027</v>
       </c>
       <c r="T3">
-        <v>0.01859803154762904</v>
+        <v>0.8969064524470826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05046166666666666</v>
+        <v>3.614029333333333</v>
       </c>
       <c r="H4">
-        <v>0.151385</v>
+        <v>10.842088</v>
       </c>
       <c r="I4">
-        <v>0.01290321480846011</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.01317989395141378</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.743532666666667</v>
+        <v>0.6232934999999999</v>
       </c>
       <c r="N4">
-        <v>11.230598</v>
+        <v>1.246587</v>
       </c>
       <c r="O4">
-        <v>0.9802973346235675</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="P4">
-        <v>0.9802973346235675</v>
+        <v>0.09955586726874661</v>
       </c>
       <c r="Q4">
-        <v>0.1889048975811111</v>
+        <v>2.252600992276</v>
       </c>
       <c r="R4">
-        <v>1.70014407823</v>
+        <v>13.515605953656</v>
       </c>
       <c r="S4">
-        <v>0.01264898708480879</v>
+        <v>0.1422527528142264</v>
       </c>
       <c r="T4">
-        <v>0.01292021491119221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.151385</v>
-      </c>
-      <c r="I5">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J5">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.07523999999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.22572</v>
-      </c>
-      <c r="O5">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="P5">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="Q5">
-        <v>0.003796735799999999</v>
-      </c>
-      <c r="R5">
-        <v>0.03417062219999999</v>
-      </c>
-      <c r="S5">
-        <v>0.0002542277236513176</v>
-      </c>
-      <c r="T5">
-        <v>0.000259679040221572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.2462915</v>
-      </c>
-      <c r="H6">
-        <v>0.492583</v>
-      </c>
-      <c r="I6">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J6">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.743532666666667</v>
-      </c>
-      <c r="N6">
-        <v>11.230598</v>
-      </c>
-      <c r="O6">
-        <v>0.9802973346235675</v>
-      </c>
-      <c r="P6">
-        <v>0.9802973346235675</v>
-      </c>
-      <c r="Q6">
-        <v>0.9220002757723333</v>
-      </c>
-      <c r="R6">
-        <v>5.532001654634001</v>
-      </c>
-      <c r="S6">
-        <v>0.06173672429761573</v>
-      </c>
-      <c r="T6">
-        <v>0.04204034892228287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2462915</v>
-      </c>
-      <c r="H7">
-        <v>0.492583</v>
-      </c>
-      <c r="I7">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J7">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.07523999999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.22572</v>
-      </c>
-      <c r="O7">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="P7">
-        <v>0.01970266537643246</v>
-      </c>
-      <c r="Q7">
-        <v>0.01853097246</v>
-      </c>
-      <c r="R7">
-        <v>0.11118583476</v>
-      </c>
-      <c r="S7">
-        <v>0.001240825591696704</v>
-      </c>
-      <c r="T7">
-        <v>0.0008449547885818448</v>
+        <v>0.09955586726874661</v>
       </c>
     </row>
   </sheetData>
